--- a/Document/시스템 기획서/신규프로젝트_스킬_강일구.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_스킬_강일구.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="문서 개요 " sheetId="1" r:id="rId1"/>
-    <sheet name="스킬1번 " sheetId="2" r:id="rId2"/>
-    <sheet name="스킬2번 " sheetId="3" r:id="rId3"/>
+    <sheet name="문서 개요" sheetId="1" r:id="rId1"/>
+    <sheet name="스킬1번" sheetId="2" r:id="rId2"/>
+    <sheet name="스킬2번" sheetId="3" r:id="rId3"/>
     <sheet name="스킬3번" sheetId="4" r:id="rId4"/>
+    <sheet name="궁극기 " sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -85,10 +86,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1. 스킬1 설명</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 유도 미사일 같은 형태 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -177,7 +174,79 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2. 스킬2 설명</t>
+    <t xml:space="preserve">2. 스킬2 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니 시간 (예제)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">이펙트 예제 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.1 스킬 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.2 스킬 데이터 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">몬스터를 끌어드리는 블랙 홀 같은 형태의 스킬 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillRange</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬 거리 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKilSpeed</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">날아가는 속도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 스킬1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3. 스킬3 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. 궁극기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">직선거리로 구 발사 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 거리</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -291,7 +360,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -310,6 +379,15 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -319,7 +397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -862,7 +940,7 @@
   <dimension ref="B2:I24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -879,13 +957,13 @@
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
@@ -897,55 +975,55 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:9" ht="24" x14ac:dyDescent="0.3">
       <c r="B11" s="5" t="s">
@@ -997,119 +1075,119 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Y35" sqref="Y35"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:19" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:19" x14ac:dyDescent="0.3">
       <c r="I13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="S13" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" t="s">
+        <v>18</v>
+      </c>
+      <c r="U24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B28" s="8" t="s">
         <v>22</v>
-      </c>
-      <c r="K24" t="s">
-        <v>19</v>
-      </c>
-      <c r="U24" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="9" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1122,17 +1200,134 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:K50"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.375" customWidth="1"/>
+    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>53</v>
+      </c>
+      <c r="K12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="12"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1141,14 +1336,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/시스템 기획서/신규프로젝트_스킬_강일구.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_스킬_강일구.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -194,26 +194,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">몬스터를 끌어드리는 블랙 홀 같은 형태의 스킬 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillRange</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">스킬 거리 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKilSpeed</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">날아가는 속도 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터 명칭</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -242,11 +222,123 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">직선거리로 구 발사 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>최대 거리</t>
+    <t xml:space="preserve"> - 플레이어 스킬에 대한 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어 스킬을 조정하기 위해 사용할 데이터 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬의 기획의도를 전달 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 몬스터를 끌어드리는 블랙 홀 같은 형태의 스킬 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 다른 스킬들과 연계되어 사용 될 수 있도록 만든 스킬 (몬스터를 모아두고 광역 스킬 혹은 기본공격)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 무조건 적으로 공격을 성공 할 수 있도록 만드는 스킬 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 보스 전투를 위해 만든 스킬 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.1 스킬 설명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 단독으로 사용해도 강력하나 2번 스킬과 연계시 더 강해지는 형태 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 빠른 시간 내에 많은 피해를 주도록 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 정면으로 빔을 발사하는 형태 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2 스킬 룰 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">끌어드리기가 실행되는 범위 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬이 작동 되는 거리 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬이 작동 되는 시간 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">예시 레퍼런스 (커츠펠 https://www.youtube.com/watch?v=sMZQ0a55Feg&amp;feature=youtu.be 1분 15초) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">직선거리 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 이후 부터</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설치 되는 속도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>실수형</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시 레퍼런스( 드래곤네스트 클래릭 https://www.youtube.com/watch?v=KerPwc60Cj0 14초)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1번 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">2번 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3번 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">가상의 빔을 발사 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">콜라이더와 충돌 시 삭제 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +346,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +406,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -328,7 +429,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -351,16 +452,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -391,19 +532,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="강조색3" xfId="1" builtinId="37"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -424,13 +587,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>48745</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>74520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>401171</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>188347</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -468,13 +631,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>16248</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>189939</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>444873</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>208990</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -522,13 +685,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>60388</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -577,13 +740,13 @@
     <xdr:from>
       <xdr:col>20</xdr:col>
       <xdr:colOff>78443</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>619845</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>44823</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -621,13 +784,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>672914</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>163045</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>417979</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>182096</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -669,6 +832,66 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>312285</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="ë¸ëí ì¤í¬ì ëí ì´ë¯¸ì§ ê²ìê²°ê³¼"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="714376" y="1847850"/>
+          <a:ext cx="4065134" cy="2276475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -937,10 +1160,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I24"/>
+  <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C32" sqref="C32:C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -957,13 +1180,13 @@
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
@@ -975,43 +1198,46 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9"/>
@@ -1019,47 +1245,88 @@
       <c r="H9" s="9"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="2:9" ht="24" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+    </row>
+    <row r="16" spans="2:9" ht="24" x14ac:dyDescent="0.3">
+      <c r="B16" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="4" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="4" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="4" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="4" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="D8:H8"/>
-    <mergeCell ref="D9:H9"/>
-    <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="D15:H15"/>
     <mergeCell ref="D4:H4"/>
     <mergeCell ref="D5:H5"/>
     <mergeCell ref="D6:H6"/>
@@ -1073,17 +1340,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:U42"/>
+  <dimension ref="A2:U44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:19" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
@@ -1101,92 +1368,102 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="I13" s="4" t="s">
+    <row r="7" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+      <c r="I15" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S13" s="4" t="s">
+      <c r="S15" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>21</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K26" t="s">
         <v>18</v>
       </c>
-      <c r="U24" t="s">
+      <c r="U26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B28" s="8" t="s">
+    <row r="30" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B30" s="8" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1200,134 +1477,224 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:K50"/>
+  <dimension ref="A2:M85"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>73</v>
+      </c>
+      <c r="G23" t="s">
+        <v>74</v>
+      </c>
+      <c r="M23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B46" s="6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="E12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="7" t="s">
+      <c r="C46" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+      <c r="G46" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="7" t="s">
+      <c r="H46" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="12"/>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="4" t="s">
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="7"/>
+      <c r="C47" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" s="15"/>
+      <c r="E47" s="15"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="H47" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="12"/>
+      <c r="C48" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="H48" s="12"/>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B49" s="7"/>
+      <c r="C49" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="D49" s="15"/>
+      <c r="E49" s="15"/>
+      <c r="F49" s="15"/>
+      <c r="G49" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B50" s="11"/>
+      <c r="C50" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="15"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="15"/>
+      <c r="G50" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="H50" s="11"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="4" t="s">
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="4" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C27:F27"/>
+  <mergeCells count="5">
+    <mergeCell ref="C46:F46"/>
+    <mergeCell ref="C47:F47"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C48:F48"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B21" r:id="rId1" display="https://www.youtube.com/watch?v=KerPwc60Cj0"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1348,7 +1715,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/Document/시스템 기획서/신규프로젝트_스킬_강일구.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_스킬_강일구.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -282,10 +282,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">스킬이 작동 되는 거리 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">스킬이 작동 되는 시간 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -306,10 +302,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>설치 이후 부터</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>설치 되는 속도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -318,27 +310,72 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve"> - z값을 통해 땅에 떨어트릴 위치를 지정 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 멀리 볼 수록 먼곳에서 떨어지고 가까운 곳을 보고 있으면 가까운 곳에 떨어지도록 제작 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">콜라이더 충돌 시 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">카메라 다운 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">카메라 최대 거리 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬이 설치 되는 거리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>예시 레퍼런스( 드래곤네스트 클래릭 https://www.youtube.com/watch?v=KerPwc60Cj0 14초)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1번 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">2번 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3번 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">가상의 빔을 발사 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">콜라이더와 충돌 시 삭제 </t>
+    <t xml:space="preserve">순서 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">설치 이후 부터
+값이 0이 되면 스킬 종료 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">원형태의 범위 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 가상의 빔을 발사</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 캐릭터의 머리 부분에 붙여 캐릭터가 바라보고 있는 곳을 알 수 있도록 제작 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 빔의 길이를 통해서 스킬이 설치되는 거리를 조절함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 빔의 길이는 () 값을 통해서 조절 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬이 작동 되는 시간을 () 값을 통해서 조절</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - () 값은 이펙트 재생시간과 동일함 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬의 범위는 () 값을 통해 조절하며 원형의 형태로 구성</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -346,7 +383,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -412,6 +449,23 @@
       <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -501,7 +555,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -520,47 +574,56 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -848,7 +911,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>312285</xdr:colOff>
+      <xdr:colOff>65755</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -890,6 +953,182 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>574298</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="857251" y="6810375"/>
+          <a:ext cx="5118842" cy="2181225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>174250</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>621925</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>162561</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14484162" y="8942294"/>
+          <a:ext cx="3181911" cy="2717502"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>686359</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>488575</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>141374</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8463241" y="7168963"/>
+          <a:ext cx="4206128" cy="2553440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38569</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>31280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="5322794"/>
+          <a:ext cx="7131892" cy="670015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1180,13 +1419,13 @@
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1198,99 +1437,99 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="15" t="s">
+      <c r="D5" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="2:9" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
@@ -1398,7 +1637,7 @@
       </c>
     </row>
     <row r="30" spans="1:21" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1477,21 +1716,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:M85"/>
+  <dimension ref="A2:T121"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H58" sqref="H58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="2" width="15.625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="11"/>
+    <col min="8" max="8" width="22.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="12" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1501,146 +1744,206 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+      <c r="B5" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" t="s">
+      <c r="B6" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="A14" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="13"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="13"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="13"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="13"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="13"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="13"/>
+    </row>
+    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B47" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="T47" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B67" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B69" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="21"/>
+      <c r="E69" s="21"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="H69" s="20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B70" s="14"/>
+      <c r="C70" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" s="15"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="15"/>
+      <c r="G70" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="H70" s="14" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B23" t="s">
-        <v>73</v>
-      </c>
-      <c r="G23" t="s">
-        <v>74</v>
-      </c>
-      <c r="M23" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B46" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="D46" s="14"/>
-      <c r="E46" s="14"/>
-      <c r="F46" s="14"/>
-      <c r="G46" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="7"/>
-      <c r="C47" s="15" t="s">
+    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B71" s="14"/>
+      <c r="C71" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="H71" s="14"/>
+    </row>
+    <row r="72" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B72" s="14"/>
+      <c r="C72" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="7" t="s">
+      <c r="D72" s="15"/>
+      <c r="E72" s="15"/>
+      <c r="F72" s="15"/>
+      <c r="G72" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="H47" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="12"/>
-      <c r="C48" s="16" t="s">
+      <c r="H72" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B73" s="19"/>
+      <c r="C73" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D73" s="15"/>
+      <c r="E73" s="15"/>
+      <c r="F73" s="15"/>
+      <c r="G73" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B77" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B78" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B79" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="12" t="s">
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B80" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="H48" s="12"/>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B49" s="7"/>
-      <c r="C49" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B50" s="11"/>
-      <c r="C50" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="H50" s="11"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="4" t="s">
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="11" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="4" t="s">
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="4" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C46:F46"/>
-    <mergeCell ref="C47:F47"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C69:F69"/>
+    <mergeCell ref="C70:F70"/>
+    <mergeCell ref="C72:F72"/>
+    <mergeCell ref="C73:F73"/>
+    <mergeCell ref="C71:F71"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>

--- a/Document/시스템 기획서/신규프로젝트_스킬_강일구.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_스킬_강일구.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\시스템 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강일구\Desktop\Monday_Document\Document\시스템 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EA3EBF-5F46-4E7D-8F8F-36E2B63BBBF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="12255" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -178,14 +179,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>애니 시간 (예제)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">이펙트 예제 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2.1 스킬 설명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -315,10 +308,6 @@
   </si>
   <si>
     <t xml:space="preserve"> - 멀리 볼 수록 먼곳에서 떨어지고 가까운 곳을 보고 있으면 가까운 곳에 떨어지도록 제작 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">콜라이더 충돌 시 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -376,13 +365,73 @@
   </si>
   <si>
     <t xml:space="preserve"> - 스킬의 범위는 () 값을 통해 조절하며 원형의 형태로 구성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">설치 위치 판단 구현 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.3 이미지 예시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">애니 출력 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주변에 있는 몬스터 끌어모음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이펙트 생성</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">애니 종료 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>콜라이더 충돌 시 1번</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">콜라이더 충돌 시 2번 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">설치 위치 판정 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬 작동 시간 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬 작동 룰 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 범위 내에 모든 몬스터를 중심 점으로 끌어모음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">공격 판정 범위 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">출력 흐름도 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 이펙트 종료 후 몬스터 중심 위치에서 이동 시작 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -580,6 +629,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -589,21 +659,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -612,18 +673,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -661,7 +710,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -705,7 +760,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="오른쪽 화살표 2"/>
+        <xdr:cNvPr id="3" name="오른쪽 화살표 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -759,7 +820,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 2" descr="https://cafeptthumb-phinf.pstatic.net/MjAxOTA3MjlfOTgg/MDAxNTY0MzMxNzIyMzA4.c8f_48KYZhgyDFijGS6IzQjhTef6IsG00ETJMm0OH-Qg.Tvear5kUOJT6oyqYvr6XEWKWcr8cC6OY8GvHyFWJF2cg.GIF/8%EB%B0%A9%ED%96%A5%EC%9B%80%EC%A7%81%EC%9E%84.gif?type=w740"/>
+        <xdr:cNvPr id="4" name="Picture 2" descr="https://cafeptthumb-phinf.pstatic.net/MjAxOTA3MjlfOTgg/MDAxNTY0MzMxNzIyMzA4.c8f_48KYZhgyDFijGS6IzQjhTef6IsG00ETJMm0OH-Qg.Tvear5kUOJT6oyqYvr6XEWKWcr8cC6OY8GvHyFWJF2cg.GIF/8%EB%B0%A9%ED%96%A5%EC%9B%80%EC%A7%81%EC%9E%84.gif?type=w740">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1" noCrop="1"/>
         </xdr:cNvPicPr>
@@ -814,7 +881,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -858,7 +931,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="오른쪽 화살표 5"/>
+        <xdr:cNvPr id="6" name="오른쪽 화살표 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -917,7 +996,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1" descr="ë¸ëí ì¤í¬ì ëí ì´ë¯¸ì§ ê²ìê²°ê³¼"/>
+        <xdr:cNvPr id="2" name="그림 1" descr="ë¸ëí ì¤í¬ì ëí ì´ë¯¸ì§ ê²ìê²°ê³¼">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -961,18 +1046,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>574298</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -991,52 +1082,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="857251" y="6810375"/>
-          <a:ext cx="5118842" cy="2181225"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>174250</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>621925</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>162561</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="그림 3"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14484162" y="8942294"/>
-          <a:ext cx="3181911" cy="2717502"/>
+          <a:off x="855010" y="7334250"/>
+          <a:ext cx="5109317" cy="2214843"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1049,24 +1096,30 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>686359</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>488575</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>73</xdr:row>
       <xdr:rowOff>141374</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4"/>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -1104,7 +1157,63 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5"/>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="683559" y="5322794"/>
+          <a:ext cx="7131892" cy="670015"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>633691</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>397808</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>39296</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="그림 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C70C6CE-F95D-4CDC-9CDF-5C110B8EA099}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1123,8 +1232,108 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="683559" y="5322794"/>
-          <a:ext cx="7131892" cy="670015"/>
+          <a:off x="14865162" y="12438529"/>
+          <a:ext cx="3181911" cy="2717502"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>246531</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>112060</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>13015</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF41135C-BD0A-44CA-B96A-F98FBD853ABE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19946472" y="11586882"/>
+          <a:ext cx="3966882" cy="3542868"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>257736</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>44824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>63323</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8A36F60-D6B1-44BB-8771-222A8C932298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="941295" y="23252206"/>
+          <a:ext cx="4067735" cy="4063823"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1398,7 +1607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1419,13 +1628,13 @@
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1437,45 +1646,45 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7"/>
@@ -1485,7 +1694,7 @@
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
@@ -1495,7 +1704,7 @@
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
@@ -1518,18 +1727,18 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="2:9" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
@@ -1578,7 +1787,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:U44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1589,7 +1798,7 @@
   <sheetData>
     <row r="2" spans="2:19" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.3">
@@ -1609,12 +1818,12 @@
     </row>
     <row r="7" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="2:19" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.3">
@@ -1715,239 +1924,301 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:T121"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A2:AA106"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H121" sqref="H121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="2" width="15.625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="19.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="11"/>
-    <col min="8" max="8" width="22.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="2" width="15.625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="19.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="8"/>
+    <col min="8" max="8" width="22.375" style="8" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" style="8" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:2" ht="33.75" x14ac:dyDescent="0.3">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="9" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="10"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="10"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B27" s="10"/>
+    </row>
+    <row r="28" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="10"/>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="13" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B6" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="11" t="s">
+      <c r="C32" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="11"/>
+      <c r="C33" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="11"/>
+      <c r="C34" s="20" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="13" t="s">
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="2:8" ht="33" x14ac:dyDescent="0.3">
+      <c r="B35" s="11"/>
+      <c r="C35" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H35" s="14" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="12"/>
+      <c r="C36" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="H36" s="11" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="13"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="13" t="s">
+    <row r="39" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B39" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B40" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="13"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="13"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="13"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="13"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B29" s="13"/>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B47" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="J47" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="T47" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B67" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B69" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C69" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="D69" s="21"/>
-      <c r="E69" s="21"/>
-      <c r="F69" s="21"/>
-      <c r="G69" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H69" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B70" s="14"/>
-      <c r="C70" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="H70" s="14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B71" s="14"/>
-      <c r="C71" s="16" t="s">
+    <row r="41" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B41" s="8" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B42" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D71" s="17"/>
-      <c r="E71" s="17"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="14" t="s">
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B43" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="H71" s="14"/>
-    </row>
-    <row r="72" spans="2:8" ht="33" x14ac:dyDescent="0.3">
-      <c r="B72" s="14"/>
-      <c r="C72" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H72" s="22" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B73" s="19"/>
-      <c r="C73" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H73" s="14" t="s">
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B44" s="8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B77" s="11" t="s">
+    <row r="45" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B45" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B78" s="11" t="s">
+    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B47" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B48" s="8" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B79" s="11" t="s">
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="8" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B76" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J76" s="8" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B80" s="11" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="11" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="11" t="s">
+      <c r="S76" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA76" s="8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="82" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B82" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="83" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B83" s="4" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B107" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B121" s="4" t="s">
-        <v>38</v>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="C69:F69"/>
-    <mergeCell ref="C70:F70"/>
-    <mergeCell ref="C72:F72"/>
-    <mergeCell ref="C73:F73"/>
-    <mergeCell ref="C71:F71"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C34:F34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B21" r:id="rId1" display="https://www.youtube.com/watch?v=KerPwc60Cj0"/>
+    <hyperlink ref="B21" r:id="rId1" display="https://www.youtube.com/watch?v=KerPwc60Cj0" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -1956,7 +2227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:B10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1967,37 +2238,37 @@
   <sheetData>
     <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2007,7 +2278,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2018,7 +2289,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/Document/시스템 기획서/신규프로젝트_스킬_강일구.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_스킬_강일구.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강일구\Desktop\Monday_Document\Document\시스템 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79EA3EBF-5F46-4E7D-8F8F-36E2B63BBBF2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62CCCD6-8CDF-4672-B984-3D0028CAB2B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -425,6 +425,14 @@
   </si>
   <si>
     <t xml:space="preserve"> - 이펙트 종료 후 몬스터 중심 위치에서 이동 시작 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 플레이어가 원하는 곳에 설치 할 수 있도록 하는 시스템</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 최대거리를 벗어나지 않도록 제작 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1046,13 +1054,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>62</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>574298</xdr:colOff>
-      <xdr:row>72</xdr:row>
+      <xdr:row>75</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1096,14 +1104,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>686359</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>488575</xdr:colOff>
-      <xdr:row>73</xdr:row>
-      <xdr:rowOff>141374</xdr:rowOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>141373</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1196,13 +1204,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>633691</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>64</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>397808</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>77</xdr:row>
       <xdr:rowOff>39296</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1296,14 +1304,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257736</xdr:colOff>
-      <xdr:row>107</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>126</xdr:row>
-      <xdr:rowOff>63323</xdr:rowOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>63324</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1925,10 +1933,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:AA106"/>
+  <dimension ref="A2:AA109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H121" sqref="H121"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L78" sqref="L78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2157,54 +2165,67 @@
         <v>84</v>
       </c>
     </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B76" s="8" t="s">
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="4"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B79" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="J76" s="8" t="s">
+      <c r="J79" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="S76" s="8" t="s">
+      <c r="S79" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="AA76" s="8" t="s">
+      <c r="AA79" s="8" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="82" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B82" s="4" t="s">
+    <row r="85" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B85" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="83" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B83" s="4" t="s">
+    <row r="86" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B86" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-      <c r="E83" s="4" t="s">
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F83" s="4"/>
-      <c r="G83" s="4"/>
-      <c r="H83" s="4"/>
-      <c r="I83" s="4" t="s">
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="J83" s="4"/>
-      <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
-      <c r="M83" s="4"/>
-      <c r="N83" s="4"/>
-      <c r="O83" s="4"/>
-      <c r="P83" s="4" t="s">
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="Q83" s="4"/>
-      <c r="R83" s="4"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B106" s="4" t="s">
+      <c r="Q86" s="4"/>
+      <c r="R86" s="4"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="4" t="s">
         <v>96</v>
       </c>
     </row>

--- a/Document/시스템 기획서/신규프로젝트_스킬_강일구.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_스킬_강일구.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\강일구\Desktop\Monday_Document\Document\시스템 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\시스템 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62CCCD6-8CDF-4672-B984-3D0028CAB2B1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요" sheetId="1" r:id="rId1"/>
@@ -439,7 +438,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1615,7 +1614,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -1795,7 +1794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U44"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1932,11 +1931,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L78" sqref="L78"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2239,7 +2238,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B21" r:id="rId1" display="https://www.youtube.com/watch?v=KerPwc60Cj0" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="B21" r:id="rId1" display="https://www.youtube.com/watch?v=KerPwc60Cj0"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
@@ -2248,7 +2247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B10"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -2299,7 +2298,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">

--- a/Document/시스템 기획서/신규프로젝트_스킬_강일구.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_스킬_강일구.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\210\Desktop\MC\Document\시스템 기획서\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\400-108\Desktop\MondayClass\Document\시스템 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -286,10 +286,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">예시 레퍼런스 (커츠펠 https://www.youtube.com/watch?v=sMZQ0a55Feg&amp;feature=youtu.be 1분 15초) </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">직선거리 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -319,10 +315,6 @@
   </si>
   <si>
     <t>스킬이 설치 되는 거리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>예시 레퍼런스( 드래곤네스트 클래릭 https://www.youtube.com/watch?v=KerPwc60Cj0 14초)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -432,6 +424,14 @@
   </si>
   <si>
     <t xml:space="preserve"> - 최대거리를 벗어나지 않도록 제작 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">예시 레퍼런스 (커츠펠 https://www.youtube.com/watch?v=sMZQ0a55Feg&amp;feature=youtu.be 1분 15초) </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>예시 레퍼런스( 드래곤네스트 클래릭 https://www.youtube.com/watch?v=KerPwc60Cj0 14초)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1934,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA109"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1976,12 +1976,12 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>64</v>
+        <v>99</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
@@ -1989,7 +1989,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
@@ -2029,7 +2029,7 @@
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="11"/>
       <c r="C33" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D33" s="19"/>
       <c r="E33" s="19"/>
@@ -2038,19 +2038,19 @@
         <v>62</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="11"/>
       <c r="C34" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D34" s="21"/>
       <c r="E34" s="21"/>
       <c r="F34" s="22"/>
       <c r="G34" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H34" s="11"/>
     </row>
@@ -2066,7 +2066,7 @@
         <v>63</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
@@ -2081,87 +2081,87 @@
         <v>63</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B47" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.3">
@@ -2169,47 +2169,47 @@
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="79" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B79" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J79" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="S79" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AA79" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B85" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="86" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B86" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C86" s="4"/>
       <c r="D86" s="4"/>
       <c r="E86" s="4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
       <c r="I86" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
@@ -2218,14 +2218,14 @@
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
       <c r="P86" s="4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="Q86" s="4"/>
       <c r="R86" s="4"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/Document/시스템 기획서/신규프로젝트_스킬_강일구.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_스킬_강일구.xlsx
@@ -1053,14 +1053,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>574298</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1103,14 +1103,14 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>686359</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>488575</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>141373</xdr:rowOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>141374</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1203,13 +1203,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>633691</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>397808</xdr:colOff>
-      <xdr:row>77</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>39296</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1253,13 +1253,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>246531</xdr:colOff>
-      <xdr:row>57</xdr:row>
+      <xdr:row>59</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>112060</xdr:colOff>
-      <xdr:row>74</xdr:row>
+      <xdr:row>76</xdr:row>
       <xdr:rowOff>13015</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1303,14 +1303,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257736</xdr:colOff>
-      <xdr:row>110</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>129</xdr:row>
-      <xdr:rowOff>63324</xdr:rowOff>
+      <xdr:row>131</xdr:row>
+      <xdr:rowOff>63323</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1797,7 +1797,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U44"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1932,10 +1932,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AA109"/>
+  <dimension ref="A2:AA111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2134,97 +2134,97 @@
         <v>80</v>
       </c>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="4" t="s">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="4" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="8" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="8" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="4" t="s">
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="4" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="4"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="4"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="4" t="s">
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B79" s="8" t="s">
+    <row r="81" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B81" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="J79" s="8" t="s">
+      <c r="J81" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="S79" s="8" t="s">
+      <c r="S81" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AA79" s="8" t="s">
+      <c r="AA81" s="8" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="85" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B85" s="4" t="s">
+    <row r="87" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B87" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="86" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B86" s="4" t="s">
+    <row r="88" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B88" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-      <c r="E86" s="4" t="s">
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F86" s="4"/>
-      <c r="G86" s="4"/>
-      <c r="H86" s="4"/>
-      <c r="I86" s="4" t="s">
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J86" s="4"/>
-      <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
-      <c r="M86" s="4"/>
-      <c r="N86" s="4"/>
-      <c r="O86" s="4"/>
-      <c r="P86" s="4" t="s">
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="Q86" s="4"/>
-      <c r="R86" s="4"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B109" s="4" t="s">
+      <c r="Q88" s="4"/>
+      <c r="R88" s="4"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="4" t="s">
         <v>94</v>
       </c>
     </row>

--- a/Document/시스템 기획서/신규프로젝트_스킬_강일구.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_스킬_강일구.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="140">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -263,10 +263,6 @@
   </si>
   <si>
     <t xml:space="preserve"> - 정면으로 빔을 발사하는 형태 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">3.2 스킬 룰 구성 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -415,10 +411,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> - 이펙트 종료 후 몬스터 중심 위치에서 이동 시작 </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> - 플레이어가 원하는 곳에 설치 할 수 있도록 하는 시스템</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -432,6 +424,170 @@
   </si>
   <si>
     <t>예시 레퍼런스( 드래곤네스트 클래릭 https://www.youtube.com/watch?v=KerPwc60Cj0 14초)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 끌어들이는 이펙트 시작과 함께 몬스터 중심 위치에서 이동 시작 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬이 작동 된후 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2 스킬 작동 룰 구성 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬 버튼을 누를시 바로 시전됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시전시 스킬의 방향을 캐릭터의 직선 방향으로 시전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시전중 캔슬이 가능함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시전중 빔의 좌우 위치를 마우스로 변경가능</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.3 작동 시간 룰</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬을 작동시 전조 동작중엔 지속시간, 쿨타임이 작동하지 않음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬이 시전되어 사용상태로 들어갈시 지속시간, 쿨타임 체크를 시작함.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 용어 정리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전조동작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬이 시작되기 전 동작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬이 시작된 상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>빔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬3번의 명칭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>19.08.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬2,3번 확정 진행</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 캔슬 기능과 지속시간을 적용해 타이밍을 계산, 사용시 강한 딜링이 가능함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬은 시전중 회피로 캔슬이 가능함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬 시전이 끝나면 Idle모션으로 바로 돌아옴</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.4 예외처리</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시전중 이동처리는 받지 않지만 화면처리는 받음</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 버튼은 한번만 누리면 발동되며 중간 캔슬은 회피로만 가능함</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 로직</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 출력 예시</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시전전 작동중일때 캔슬하면 5초의 쿨타임을 가짐</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>사전 동작</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시전</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 동작 중 작은 이펙트로 진행도 확인</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 시전중 루프되는 이펙트 사용</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>종료</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 종료될 때 종료 이펙트 사용 </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -439,7 +595,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -525,8 +681,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -536,6 +701,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -611,7 +782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -657,6 +828,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -679,6 +853,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1053,14 +1233,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>171451</xdr:colOff>
-      <xdr:row>67</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>574298</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>180976</xdr:rowOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1103,13 +1283,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>686359</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>488575</xdr:colOff>
-      <xdr:row>78</xdr:row>
+      <xdr:row>81</xdr:row>
       <xdr:rowOff>141374</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1203,13 +1383,13 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>633691</xdr:colOff>
-      <xdr:row>66</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>397808</xdr:colOff>
-      <xdr:row>79</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>39296</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1253,13 +1433,13 @@
     <xdr:from>
       <xdr:col>25</xdr:col>
       <xdr:colOff>246531</xdr:colOff>
-      <xdr:row>59</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>89647</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
       <xdr:colOff>112060</xdr:colOff>
-      <xdr:row>76</xdr:row>
+      <xdr:row>79</xdr:row>
       <xdr:rowOff>13015</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1303,13 +1483,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257736</xdr:colOff>
-      <xdr:row>112</xdr:row>
+      <xdr:row>115</xdr:row>
       <xdr:rowOff>44824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>131</xdr:row>
+      <xdr:row>134</xdr:row>
       <xdr:rowOff>63323</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1347,6 +1527,451 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4667250" y="10420350"/>
+          <a:ext cx="1685925" cy="628650"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>339563</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>162967</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="7572375"/>
+          <a:ext cx="7997663" cy="1191667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>219801</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="9820276"/>
+          <a:ext cx="962751" cy="2114550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1971675</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>200751</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3543300" y="9820276"/>
+          <a:ext cx="962751" cy="2114550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="타원 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4371975" y="10410825"/>
+          <a:ext cx="590550" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>643862</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="타원 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1695450" y="10458450"/>
+          <a:ext cx="520037" cy="561975"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>400776</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7172325" y="9820276"/>
+          <a:ext cx="962751" cy="2114550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="직사각형 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8610600" y="10582274"/>
+          <a:ext cx="1685925" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="타원 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8429625" y="10577512"/>
+          <a:ext cx="419100" cy="319088"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1618,7 +2243,7 @@
   <dimension ref="B2:I29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32:C33"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1635,13 +2260,13 @@
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1653,41 +2278,47 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
+      <c r="B6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -1734,18 +2365,18 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="2:9" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
@@ -1797,7 +2428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:U44"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -1932,10 +2563,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AA111"/>
+  <dimension ref="A2:AA114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1976,12 +2607,12 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="10" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
@@ -1989,7 +2620,7 @@
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
@@ -2013,12 +2644,12 @@
       <c r="B32" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="18" t="s">
+      <c r="C32" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
       <c r="G32" s="13" t="s">
         <v>41</v>
       </c>
@@ -2028,135 +2659,145 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="11"/>
-      <c r="C33" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
-      <c r="F33" s="19"/>
+      <c r="C33" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
       <c r="G33" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="11"/>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="11" t="s">
         <v>65</v>
-      </c>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="22"/>
-      <c r="G34" s="11" t="s">
-        <v>66</v>
       </c>
       <c r="H34" s="11"/>
     </row>
     <row r="35" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B35" s="11"/>
-      <c r="C35" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
-      <c r="F35" s="19"/>
+      <c r="C35" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
       <c r="G35" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H35" s="14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="12"/>
-      <c r="C36" s="19" t="s">
-        <v>60</v>
-      </c>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="19"/>
+      <c r="C36" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
       <c r="G36" s="11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H36" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B39" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B40" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B41" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B42" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B44" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="8" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B47" s="4" t="s">
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="4" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B48" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="8" t="s">
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="24" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="8" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="4" t="s">
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="8" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="8" t="s">
-        <v>96</v>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="4" t="s">
-        <v>83</v>
+      <c r="B60" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
@@ -2164,68 +2805,73 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="4"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="81" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B81" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="J81" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="4"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B84" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="S81" s="8" t="s">
+      <c r="J84" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="S84" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA84" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="AA81" s="8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="87" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B87" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="88" spans="2:27" x14ac:dyDescent="0.3">
-      <c r="B88" s="4" t="s">
+    </row>
+    <row r="90" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B90" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="91" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B91" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-      <c r="E88" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F88" s="4"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
-      <c r="I88" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="J88" s="4"/>
-      <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
-      <c r="M88" s="4"/>
-      <c r="N88" s="4"/>
-      <c r="O88" s="4"/>
-      <c r="P88" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q88" s="4"/>
-      <c r="R88" s="4"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B111" s="4" t="s">
-        <v>94</v>
+      <c r="Q91" s="4"/>
+      <c r="R91" s="4"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -2248,52 +2894,212 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B10"/>
+  <dimension ref="B2:I58"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.625" customWidth="1"/>
+    <col min="3" max="3" width="26.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>59</v>
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D13" s="15"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="D14" s="15"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="24" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="24" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="24" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D57" t="s">
+        <v>135</v>
+      </c>
+      <c r="I57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>136</v>
+      </c>
+      <c r="D58" t="s">
+        <v>137</v>
+      </c>
+      <c r="I58" t="s">
+        <v>139</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Document/시스템 기획서/신규프로젝트_스킬_강일구.xlsx
+++ b/Document/시스템 기획서/신규프로젝트_스킬_강일구.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="문서 개요" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="150">
   <si>
     <t xml:space="preserve">작성자 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -588,6 +588,46 @@
   </si>
   <si>
     <t xml:space="preserve"> - 종료될 때 종료 이펙트 사용 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전조 동작 시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">스킬이 시전 되는 시간 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선상의 공격 범위</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬을 폄으로 이동했을때의 속도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">원기둥 형태의 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬을 사용한 시점부터 끌어 모으기 전에 </t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬을 사용하는중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 스킬이 사용된 상태고 이펙트가 생성됨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - 애니가 종료되고 이동가능하며 이펙트는 진행중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> - </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -782,7 +822,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -831,6 +871,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -855,10 +910,19 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1529,6 +1593,509 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>78442</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>102881</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>29185</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="그림 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762001" y="20148176"/>
+          <a:ext cx="1212262" cy="2662568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>661155</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>506299</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>29185</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4000508" y="20148176"/>
+          <a:ext cx="1212262" cy="2662568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504271</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>880788</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>85164</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="타원 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6577859" y="20999823"/>
+          <a:ext cx="376517" cy="376517"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>212919</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123273</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="타원 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5602948" y="20080940"/>
+          <a:ext cx="2297207" cy="2297207"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>862856</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>405441</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>152450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8639738" y="20058529"/>
+          <a:ext cx="1212262" cy="2662568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>448239</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>141197</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>85164</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="타원 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11261915" y="20999823"/>
+          <a:ext cx="376517" cy="376517"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>156886</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>67234</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>403417</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="타원 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10287004" y="20080940"/>
+          <a:ext cx="2297207" cy="2297207"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>605120</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>44823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>450264</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>152450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="그림 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13469473" y="20058529"/>
+          <a:ext cx="1212262" cy="2662568"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>268944</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>459444</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="타원 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15867532" y="20775705"/>
+          <a:ext cx="874059" cy="874059"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>156887</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>560300</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>44825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="타원 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15755475" y="20674853"/>
+          <a:ext cx="1086972" cy="1086972"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1538,13 +2105,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>676275</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1592,14 +2159,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>36</xdr:row>
+      <xdr:row>48</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>339563</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>162967</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>666134</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>162966</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1630,13 +2197,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>219801</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1674,13 +2241,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>1971675</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>200751</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1718,13 +2285,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>657225</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1772,13 +2339,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>48</xdr:row>
+      <xdr:row>60</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>643862</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1826,13 +2393,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>57</xdr:row>
       <xdr:rowOff>171451</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>400776</xdr:colOff>
-      <xdr:row>55</xdr:row>
+      <xdr:row>67</xdr:row>
       <xdr:rowOff>190501</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1870,13 +2437,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1924,13 +2491,13 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>61</xdr:row>
       <xdr:rowOff>90487</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>428625</xdr:colOff>
-      <xdr:row>50</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2260,13 +2827,13 @@
       <c r="C4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
       <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2278,13 +2845,13 @@
       <c r="C5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
       <c r="I5" s="1"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
@@ -2294,31 +2861,31 @@
       <c r="C6" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
       <c r="I6" s="1"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
       <c r="I7" s="1"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
@@ -2365,18 +2932,18 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
     </row>
     <row r="16" spans="2:9" ht="24" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
@@ -2565,8 +3132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AA114"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView showGridLines="0" topLeftCell="A25" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2644,12 +3211,12 @@
       <c r="B32" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="13" t="s">
         <v>41</v>
       </c>
@@ -2659,12 +3226,12 @@
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="11"/>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
       <c r="G33" s="11" t="s">
         <v>61</v>
       </c>
@@ -2674,12 +3241,12 @@
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="11"/>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="23"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
       <c r="G34" s="11" t="s">
         <v>65</v>
       </c>
@@ -2687,12 +3254,12 @@
     </row>
     <row r="35" spans="2:8" ht="33" x14ac:dyDescent="0.3">
       <c r="B35" s="11"/>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
+      <c r="D35" s="25"/>
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
       <c r="G35" s="11" t="s">
         <v>62</v>
       </c>
@@ -2702,12 +3269,12 @@
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="12"/>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
+      <c r="D36" s="25"/>
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
       <c r="G36" s="11" t="s">
         <v>62</v>
       </c>
@@ -2776,7 +3343,7 @@
       </c>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="19" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2797,7 +3364,7 @@
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.3">
@@ -2854,20 +3421,30 @@
       <c r="F91" s="4"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
-      <c r="I91" s="4" t="s">
+      <c r="J91" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="J91" s="4"/>
       <c r="K91" s="4"/>
-      <c r="L91" s="4"/>
       <c r="M91" s="4"/>
-      <c r="N91" s="4"/>
       <c r="O91" s="4"/>
-      <c r="P91" s="4" t="s">
+      <c r="Q91" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="Q91" s="4"/>
       <c r="R91" s="4"/>
+    </row>
+    <row r="107" spans="2:17" x14ac:dyDescent="0.3">
+      <c r="B107" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="J107" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q107" s="8" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" s="4" t="s">
@@ -2894,70 +3471,71 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I58"/>
+  <dimension ref="B2:I70"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="V31" sqref="V31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.625" customWidth="1"/>
     <col min="3" max="3" width="26.875" customWidth="1"/>
+    <col min="8" max="8" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="33.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" ht="33.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B11" s="25" t="s">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="20" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="20" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="15" t="s">
         <v>116</v>
       </c>
@@ -2966,7 +3544,7 @@
       </c>
       <c r="D12" s="15"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
         <v>117</v>
       </c>
@@ -2975,7 +3553,7 @@
       </c>
       <c r="D13" s="15"/>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="15" t="s">
         <v>120</v>
       </c>
@@ -2984,119 +3562,242 @@
       </c>
       <c r="D14" s="15"/>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="8"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="18"/>
+      <c r="C19" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="18"/>
+      <c r="C20" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="14"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="12"/>
+      <c r="C21" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="16"/>
+      <c r="C22" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33"/>
+      <c r="G22" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H22" s="30"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="29"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="29"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="29"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="29"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="29"/>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B28" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B18" s="24" t="s">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B30" s="19" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B19" s="24" t="s">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B31" s="19" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B20" s="24" t="s">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="19" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B21" s="24" t="s">
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="19" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B22" s="24" t="s">
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="19" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B23" s="4" t="s">
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B24" s="24" t="s">
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="19" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B25" s="24" t="s">
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="19" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B26" s="24" t="s">
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="19" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B27" s="24" t="s">
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="19" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B28" s="24" t="s">
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B30" s="4" t="s">
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
         <v>129</v>
-      </c>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B32" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="4" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B57" t="s">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
         <v>134</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D69" t="s">
         <v>135</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I69" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B58" t="s">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
         <v>136</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D70" t="s">
         <v>137</v>
       </c>
-      <c r="I58" t="s">
+      <c r="I70" t="s">
         <v>139</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
